--- a/hojs/hojs/gwaterNA.xlsx
+++ b/hojs/hojs/gwaterNA.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="8">
   <si>
     <t xml:space="preserve">Sitio</t>
   </si>
@@ -35,6 +35,9 @@
   </si>
   <si>
     <t xml:space="preserve">FALTA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">faltante</t>
   </si>
   <si>
     <t xml:space="preserve">C</t>
@@ -158,7 +161,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -347,8 +350,8 @@
   </sheetPr>
   <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="250" zoomScaleNormal="250" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C4" activeCellId="0" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -379,9 +382,7 @@
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="3" t="n">
-        <v>139</v>
-      </c>
+      <c r="B3" s="3"/>
       <c r="C3" s="1" t="n">
         <v>561</v>
       </c>
@@ -393,13 +394,13 @@
       <c r="B4" s="3" t="n">
         <v>331</v>
       </c>
-      <c r="C4" s="4" t="n">
-        <v>77</v>
+      <c r="C4" s="4" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>4</v>
@@ -410,7 +411,7 @@
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B6" s="1" t="n">
         <v>133</v>
@@ -421,7 +422,7 @@
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B7" s="3" t="n">
         <v>157</v>
